--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -623,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wind Energy Taxonomy</t>
+          <t>Wind Energy Taxonomy of Topics</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
